--- a/experiment result/128_0.5_40_zs0_kappa_lp.xlsx
+++ b/experiment result/128_0.5_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03628677160526914</v>
+        <v>0.006569185280318876</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06815285277822149</v>
+        <v>0.02353857357001102</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09377312985789114</v>
+        <v>0.0280474727105287</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07870426417465998</v>
+        <v>0.03633478740316263</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09123447795317821</v>
+        <v>0.0160215468744362</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06525791477757355</v>
+        <v>0.032739489733864</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06025677667904387</v>
+        <v>0.01921566803630747</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0625137729228023</v>
+        <v>0.02763683023389149</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06049528740502892</v>
+        <v>0.02227198594463063</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07820942915554065</v>
+        <v>0.06453905161261229</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09668354573472956</v>
+        <v>0.01476723479581299</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1013101979533708</v>
+        <v>0.02972136845892461</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05161529979245888</v>
+        <v>0.00771337847876454</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08984004884322823</v>
+        <v>0.02073997998126401</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.09130769266054881</v>
+        <v>0.02255896838925628</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06940402926345809</v>
+        <v>0.01042923922231421</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.09669605552626112</v>
+        <v>0.02357160949407509</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03216313729150364</v>
+        <v>0.01366810036164974</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1034634327485529</v>
+        <v>0.05862167427184839</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0614661868054338</v>
+        <v>0.01275755552302769</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0380275255688956</v>
+        <v>0.006847535300066934</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06831065196061714</v>
+        <v>0.01712389003341881</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0769473863748134</v>
+        <v>0.03409840528499485</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02961056868608223</v>
+        <v>0.004794945410405121</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03839943738363827</v>
+        <v>0.001632246677325961</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08675047338990431</v>
+        <v>0.02835013772563781</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.097093403790012</v>
+        <v>0.01032078356902957</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.09789149153543156</v>
+        <v>0.02857882920182502</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07217634472713581</v>
+        <v>0.01978409282376477</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07551445919346514</v>
+        <v>0.01774501122445064</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02892606775008806</v>
+        <v>0.001390764447914485</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06465403550883381</v>
+        <v>0.01232856133532568</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1192890008635722</v>
+        <v>0.02332709471969904</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0619188939325225</v>
+        <v>0.02694049546707094</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.07749567273330628</v>
+        <v>0.04663327069156512</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08400824125190767</v>
+        <v>0.03743734536340199</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.08917019068053579</v>
+        <v>0.02187201367365281</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1099919944707057</v>
+        <v>0.04632407520862651</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06453132501919513</v>
+        <v>0.01886639460313182</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07124628087833354</v>
+        <v>0.03782080819123975</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.09711709854694031</v>
+        <v>0.04774729805285627</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08603444768223237</v>
+        <v>0.01679404101281884</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08273488489389982</v>
+        <v>0.05674950374048723</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07324114266542878</v>
+        <v>0.01889043957193885</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08744602153808484</v>
+        <v>0.0479465486352091</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.09323461678073913</v>
+        <v>0.02040115022795519</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1078753787287126</v>
+        <v>0.0567906142329799</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06137145260295281</v>
+        <v>0.02688266810150645</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0584389618532371</v>
+        <v>0.004503300243744113</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03657691265910488</v>
+        <v>0.01178442800551807</v>
       </c>
     </row>
   </sheetData>
